--- a/Atlas application All heatmaps ver2/data/dataMen.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataMen.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A63E98-F2FE-BE43-8D0D-5CC71120DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="16155" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,7 +790,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -835,6 +841,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -882,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,9 +924,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,6 +976,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1125,20 +1168,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="12" width="8.83203125" style="1"/>
+    <col min="13" max="15" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,22 +1212,22 @@
         <v>194</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>195</v>
@@ -1347,7 +1392,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1361,22 +1406,22 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="J2" s="1">
+        <v>1.7807879</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.1758719999999999E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>674</v>
+      </c>
+      <c r="M2" s="1">
         <v>1.9540367000000001</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>7.2404287999999997E-2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>207</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.7807879</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4.1758719999999999E-2</v>
-      </c>
-      <c r="O2" s="1">
-        <v>674</v>
       </c>
       <c r="P2" s="3">
         <v>0.81209075450897217</v>
@@ -1511,7 +1556,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1525,22 +1570,22 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="J3" s="1">
+        <v>1.2122697</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.1136699E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1368</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.99755119999999997</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
         <v>3.8846697999999999E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
         <v>837</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.2122697</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3.1136699E-2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1368</v>
       </c>
       <c r="P3" s="3">
         <v>0.32181790471076965</v>
@@ -1705,7 +1750,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1728,22 +1773,22 @@
         <v>52</v>
       </c>
       <c r="J4" s="1">
+        <v>0.82823097999999995</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.30271703</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
         <v>1.3069495</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>0.35437971000000001</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>8</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.82823097999999995</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.30271703</v>
-      </c>
-      <c r="O4" s="1">
-        <v>11</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1902,7 +1947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1925,22 +1970,22 @@
         <v>334</v>
       </c>
       <c r="J5" s="1">
+        <v>0.69478797999999997</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.12965104999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>64</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.75763773999999995</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>0.17531756000000001</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>33</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.69478797999999997</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.12965104999999999</v>
-      </c>
-      <c r="O5" s="1">
-        <v>64</v>
       </c>
       <c r="P5" s="3">
         <v>0.14547818899154663</v>
@@ -2105,7 +2150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2128,22 +2173,22 @@
         <v>555</v>
       </c>
       <c r="J6" s="1">
+        <v>0.98611205999999996</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.12711497999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>67</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.1203372</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>0.12375201</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6" s="1">
         <v>69</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.98611205999999996</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.12711497999999999</v>
-      </c>
-      <c r="O6" s="1">
-        <v>67</v>
       </c>
       <c r="P6" s="3">
         <v>0.37625423073768616</v>
@@ -2308,7 +2353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2331,19 +2376,19 @@
         <v>260</v>
       </c>
       <c r="J7" s="1">
-        <v>1.0339254</v>
+        <v>0.93284076000000005</v>
       </c>
       <c r="K7" s="1">
-        <v>0.18691400999999999</v>
+        <v>0.18718572</v>
       </c>
       <c r="L7" s="1">
         <v>30</v>
       </c>
       <c r="M7" s="1">
-        <v>0.93284076000000005</v>
+        <v>1.0339254</v>
       </c>
       <c r="N7" s="1">
-        <v>0.18718572</v>
+        <v>0.18691400999999999</v>
       </c>
       <c r="O7" s="1">
         <v>30</v>
@@ -2511,7 +2556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2534,22 +2579,22 @@
         <v>652</v>
       </c>
       <c r="J8" s="1">
+        <v>1.0230973000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9.4104461E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>120</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.86884373000000004</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <v>7.6201484E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8" s="1">
         <v>190</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.0230973000000001</v>
-      </c>
-      <c r="N8" s="1">
-        <v>9.4104461E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>120</v>
       </c>
       <c r="P8" s="3">
         <v>0.15721973776817322</v>
@@ -2714,7 +2759,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2737,22 +2782,22 @@
         <v>62</v>
       </c>
       <c r="J9" s="1">
+        <v>1.1073731</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.30287528000000002</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.80192554000000005</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9" s="1">
         <v>0.29006678000000002</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9" s="1">
         <v>13</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.1073731</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.30287528000000002</v>
-      </c>
-      <c r="O9" s="1">
-        <v>11</v>
       </c>
       <c r="P9" s="3">
         <v>0.30818554759025574</v>
@@ -2917,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2940,22 +2985,22 @@
         <v>590</v>
       </c>
       <c r="J10" s="1">
+        <v>1.0277338</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9.9053829999999995E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>108</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.86297643000000002</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
         <v>7.8573629000000006E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>178</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.0277338</v>
-      </c>
-      <c r="N10" s="1">
-        <v>9.9053829999999995E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>108</v>
       </c>
       <c r="P10" s="3">
         <v>0.16142041981220245</v>
@@ -3120,7 +3165,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3143,22 +3188,22 @@
         <v>1523</v>
       </c>
       <c r="J11" s="1">
+        <v>0.87229252000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.3377894000000004E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>269</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.85087513999999997</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11" s="1">
         <v>5.5374700999999998E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11" s="1">
         <v>370</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.87229252000000002</v>
-      </c>
-      <c r="N11" s="1">
-        <v>6.3377894000000004E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>269</v>
       </c>
       <c r="P11" s="3">
         <v>0.19936677813529968</v>
@@ -3323,7 +3368,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3346,22 +3391,22 @@
         <v>268</v>
       </c>
       <c r="J12" s="1">
+        <v>0.88863707000000003</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.16362345</v>
+      </c>
+      <c r="L12" s="1">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.35198986999999998</v>
       </c>
-      <c r="K12" s="1">
+      <c r="N12" s="1">
         <v>0.19366961999999999</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12" s="1">
         <v>27</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.88863707000000003</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.16362345</v>
-      </c>
-      <c r="O12" s="1">
-        <v>38</v>
       </c>
       <c r="P12" s="3">
         <v>-0.10824194550514221</v>
@@ -3520,7 +3565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3543,22 +3588,22 @@
         <v>182</v>
       </c>
       <c r="J13" s="1">
+        <v>0.60098099999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.25934123999999997</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.50479704000000003</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13" s="1">
         <v>0.10869209000000001</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13" s="1">
         <v>90</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.60098099999999999</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.25934123999999997</v>
-      </c>
-      <c r="O13" s="1">
-        <v>15</v>
       </c>
       <c r="P13" s="3">
         <v>0.45778986811637878</v>
@@ -3717,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -3739,13 +3784,13 @@
       <c r="I14" s="1">
         <v>18</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>0.58797348000000005</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <v>0.1670893</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>37</v>
       </c>
       <c r="P14" s="3">
@@ -3857,7 +3902,7 @@
       <c r="BP14" s="3"/>
       <c r="BQ14" s="2"/>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3880,22 +3925,22 @@
         <v>240</v>
       </c>
       <c r="J15" s="1">
+        <v>0.91589206000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.13527528999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>57</v>
+      </c>
+      <c r="M15" s="1">
         <v>1.0776391000000001</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15" s="1">
         <v>8.5326910000000006E-2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <v>153</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.91589206000000001</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.13527528999999999</v>
-      </c>
-      <c r="O15" s="1">
-        <v>57</v>
       </c>
       <c r="P15" s="3">
         <v>0.3510376513004303</v>
@@ -4060,7 +4105,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -4083,22 +4128,22 @@
         <v>765</v>
       </c>
       <c r="J16" s="1">
+        <v>1.1205186</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8.7674959999999996E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>141</v>
+      </c>
+      <c r="M16" s="1">
         <v>0.95219134999999999</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16" s="1">
         <v>0.13731697000000001</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>55</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.1205186</v>
-      </c>
-      <c r="N16" s="1">
-        <v>8.7674959999999996E-2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>141</v>
       </c>
       <c r="P16" s="3">
         <v>0.26497456431388855</v>
@@ -4263,7 +4308,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -4286,22 +4331,22 @@
         <v>1026</v>
       </c>
       <c r="J17" s="1">
+        <v>1.1223643999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.0956891999999999E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>287</v>
+      </c>
+      <c r="M17" s="1">
         <v>1.2360692</v>
       </c>
-      <c r="K17" s="1">
+      <c r="N17" s="1">
         <v>0.10188846</v>
       </c>
-      <c r="L17" s="1">
+      <c r="O17" s="1">
         <v>103</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.1223643999999999</v>
-      </c>
-      <c r="N17" s="1">
-        <v>6.0956891999999999E-2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>287</v>
       </c>
       <c r="P17" s="3">
         <v>0.57332140207290649</v>
@@ -4424,7 +4469,7 @@
         <v>301</v>
       </c>
       <c r="BL17" s="3">
-        <v>0.32551956176757813</v>
+        <v>0.32551956176757812</v>
       </c>
       <c r="BM17" s="3">
         <v>9.8742946982383728E-2</v>
@@ -4442,7 +4487,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -4465,22 +4510,22 @@
         <v>2085</v>
       </c>
       <c r="J18" s="1">
+        <v>1.1452624</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3.9509255E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>743</v>
+      </c>
+      <c r="M18" s="1">
         <v>1.0941908</v>
       </c>
-      <c r="K18" s="1">
+      <c r="N18" s="1">
         <v>6.0744501999999999E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18" s="1">
         <v>296</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.1452624</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3.9509255E-2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>743</v>
       </c>
       <c r="P18" s="3">
         <v>0.45909139513969421</v>
@@ -4645,7 +4690,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -4668,22 +4713,22 @@
         <v>1630</v>
       </c>
       <c r="J19" s="1">
+        <v>1.2287486999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.570308E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>542</v>
+      </c>
+      <c r="M19" s="1">
         <v>1.1459474999999999</v>
       </c>
-      <c r="K19" s="1">
+      <c r="N19" s="1">
         <v>7.8626222999999995E-2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="O19" s="1">
         <v>176</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1.2287486999999999</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4.570308E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>542</v>
       </c>
       <c r="P19" s="3">
         <v>0.51711773872375488</v>
@@ -4824,7 +4869,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4847,22 +4892,22 @@
         <v>336</v>
       </c>
       <c r="J20" s="1">
+        <v>1.1471971999999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.12320928</v>
+      </c>
+      <c r="L20" s="1">
+        <v>68</v>
+      </c>
+      <c r="M20" s="1">
         <v>0.53872830000000005</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20" s="1">
         <v>0.37719365999999999</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="1">
         <v>7</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1.1471971999999999</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.12320928</v>
-      </c>
-      <c r="O20" s="1">
-        <v>68</v>
       </c>
       <c r="P20" s="3">
         <v>1.5341005325317383</v>
@@ -4961,7 +5006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -4984,22 +5029,22 @@
         <v>264</v>
       </c>
       <c r="J21" s="1">
+        <v>0.98490929999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.15186522999999999</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45</v>
+      </c>
+      <c r="M21" s="1">
         <v>0.99229765000000003</v>
       </c>
-      <c r="K21" s="1">
+      <c r="N21" s="1">
         <v>0.14089284999999999</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21" s="1">
         <v>51</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.98490929999999999</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.15186522999999999</v>
-      </c>
-      <c r="O21" s="1">
-        <v>45</v>
       </c>
       <c r="P21" s="3">
         <v>0.43316110968589783</v>
@@ -5038,7 +5083,7 @@
         <v>26</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.87662124633789063</v>
+        <v>0.87662124633789062</v>
       </c>
       <c r="AC21" s="3">
         <v>0.12185413390398026</v>
@@ -5164,7 +5209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -5187,22 +5232,22 @@
         <v>81</v>
       </c>
       <c r="J22" s="1">
+        <v>0.15284461999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9.5906987999999999E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>112</v>
+      </c>
+      <c r="M22" s="1">
         <v>0.23230708999999999</v>
       </c>
-      <c r="K22" s="1">
+      <c r="N22" s="1">
         <v>9.4343007000000007E-2</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22" s="1">
         <v>117</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.15284461999999999</v>
-      </c>
-      <c r="N22" s="1">
-        <v>9.5906987999999999E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>112</v>
       </c>
       <c r="P22" s="3">
         <v>-0.1888006329536438</v>
@@ -5367,7 +5412,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5390,22 +5435,22 @@
         <v>82</v>
       </c>
       <c r="J23" s="1">
+        <v>6.6511966000000006E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.12040565</v>
+      </c>
+      <c r="L23" s="1">
+        <v>70</v>
+      </c>
+      <c r="M23" s="1">
         <v>-2.9143913E-2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="N23" s="1">
         <v>0.13564532000000001</v>
       </c>
-      <c r="L23" s="1">
+      <c r="O23" s="1">
         <v>55</v>
-      </c>
-      <c r="M23" s="1">
-        <v>6.6511966000000006E-2</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.12040565</v>
-      </c>
-      <c r="O23" s="1">
-        <v>70</v>
       </c>
       <c r="P23" s="3">
         <v>-0.19360816478729248</v>
@@ -5570,7 +5615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -5593,22 +5638,22 @@
         <v>53</v>
       </c>
       <c r="J24" s="1">
+        <v>-0.16226761000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.18963042999999999</v>
+      </c>
+      <c r="L24" s="1">
+        <v>28</v>
+      </c>
+      <c r="M24" s="1">
         <v>-0.45071009000000001</v>
       </c>
-      <c r="K24" s="1">
+      <c r="N24" s="1">
         <v>0.23600057999999999</v>
       </c>
-      <c r="L24" s="1">
+      <c r="O24" s="1">
         <v>18</v>
-      </c>
-      <c r="M24" s="1">
-        <v>-0.16226761000000001</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.18963042999999999</v>
-      </c>
-      <c r="O24" s="1">
-        <v>28</v>
       </c>
       <c r="P24" s="3">
         <v>-0.346292644739151</v>
@@ -5773,7 +5818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -5796,22 +5841,22 @@
         <v>31</v>
       </c>
       <c r="J25" s="1">
+        <v>0.41797391</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.37952119000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1">
         <v>0.78898376000000003</v>
       </c>
-      <c r="K25" s="1">
+      <c r="N25" s="1">
         <v>0.30081936999999997</v>
       </c>
-      <c r="L25" s="1">
+      <c r="O25" s="1">
         <v>11</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.41797391</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.37952119000000001</v>
-      </c>
-      <c r="O25" s="1">
-        <v>7</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -5970,7 +6015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -5984,22 +6029,22 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="J26" s="1">
+        <v>0.31629555999999998</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.14686569999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>48</v>
+      </c>
+      <c r="M26" s="1">
         <v>0.54131388999999996</v>
       </c>
-      <c r="K26" s="1">
+      <c r="N26" s="1">
         <v>0.12140355</v>
       </c>
-      <c r="L26" s="1">
+      <c r="O26" s="1">
         <v>71</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.31629555999999998</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.14686569999999999</v>
-      </c>
-      <c r="O26" s="1">
-        <v>48</v>
       </c>
       <c r="P26" s="3">
         <v>-0.10595400631427765</v>
@@ -6146,7 +6191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6169,22 +6214,22 @@
         <v>300</v>
       </c>
       <c r="J27" s="1">
+        <v>0.58520161999999998</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.10538743</v>
+      </c>
+      <c r="L27" s="1">
+        <v>94</v>
+      </c>
+      <c r="M27" s="1">
         <v>0.29035726000000001</v>
       </c>
-      <c r="K27" s="1">
+      <c r="N27" s="1">
         <v>7.6600686000000001E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="O27" s="1">
         <v>197</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.58520161999999998</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.10538743</v>
-      </c>
-      <c r="O27" s="1">
-        <v>94</v>
       </c>
       <c r="P27" s="3">
         <v>0.14936937391757965</v>
@@ -6349,7 +6394,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -6372,22 +6417,22 @@
         <v>45</v>
       </c>
       <c r="J28" s="1">
+        <v>6.0004923000000002E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.25963333</v>
+      </c>
+      <c r="L28" s="1">
+        <v>15</v>
+      </c>
+      <c r="M28" s="1">
         <v>6.5157853000000002E-2</v>
       </c>
-      <c r="K28" s="1">
+      <c r="N28" s="1">
         <v>0.14909431000000001</v>
       </c>
-      <c r="L28" s="1">
+      <c r="O28" s="1">
         <v>47</v>
-      </c>
-      <c r="M28" s="1">
-        <v>6.0004923000000002E-2</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.25963333</v>
-      </c>
-      <c r="O28" s="1">
-        <v>15</v>
       </c>
       <c r="P28" s="3">
         <v>-0.42657396197319031</v>
@@ -6552,7 +6597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -6575,22 +6620,22 @@
         <v>45</v>
       </c>
       <c r="J29" s="1">
+        <v>0.11469115000000001</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.29015564999999999</v>
+      </c>
+      <c r="L29" s="1">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1">
         <v>-3.9667807999999999E-2</v>
       </c>
-      <c r="K29" s="1">
+      <c r="N29" s="1">
         <v>0.31742989999999999</v>
       </c>
-      <c r="L29" s="1">
+      <c r="O29" s="1">
         <v>10</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.11469115000000001</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.29015564999999999</v>
-      </c>
-      <c r="O29" s="1">
-        <v>12</v>
       </c>
       <c r="P29" s="3">
         <v>-0.23924706876277924</v>
@@ -6755,7 +6800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -6768,13 +6813,13 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="J30" s="1">
+      <c r="M30" s="1">
         <v>0.13237308</v>
       </c>
-      <c r="K30" s="1">
+      <c r="N30" s="1">
         <v>0.15969425000000001</v>
       </c>
-      <c r="L30" s="1">
+      <c r="O30" s="1">
         <v>41</v>
       </c>
       <c r="P30" s="3">
@@ -6898,7 +6943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -6911,13 +6956,13 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="J31" s="1">
+      <c r="M31" s="1">
         <v>0.16791880000000001</v>
       </c>
-      <c r="K31" s="1">
+      <c r="N31" s="1">
         <v>0.17481482000000001</v>
       </c>
-      <c r="L31" s="1">
+      <c r="O31" s="1">
         <v>34</v>
       </c>
       <c r="P31" s="3">
@@ -7041,7 +7086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -7064,22 +7109,22 @@
         <v>550</v>
       </c>
       <c r="J32" s="1">
+        <v>0.11439156</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.3178645999999999E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1049</v>
+      </c>
+      <c r="M32" s="1">
         <v>0.13144106999999999</v>
       </c>
-      <c r="K32" s="1">
+      <c r="N32" s="1">
         <v>3.7888660999999997E-2</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O32" s="1">
         <v>794</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.11439156</v>
-      </c>
-      <c r="N32" s="1">
-        <v>3.3178645999999999E-2</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1049</v>
       </c>
       <c r="P32" s="3">
         <v>-9.3804057687520981E-3</v>
@@ -7244,7 +7289,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -7267,22 +7312,22 @@
         <v>21</v>
       </c>
       <c r="J33" s="1">
+        <v>0.31386428999999999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.15276174000000001</v>
+      </c>
+      <c r="L33" s="1">
+        <v>43</v>
+      </c>
+      <c r="M33" s="1">
         <v>0.10080783</v>
       </c>
-      <c r="K33" s="1">
+      <c r="N33" s="1">
         <v>0.18667454</v>
       </c>
-      <c r="L33" s="1">
+      <c r="O33" s="1">
         <v>29</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.31386428999999999</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.15276174000000001</v>
-      </c>
-      <c r="O33" s="1">
-        <v>43</v>
       </c>
       <c r="P33" s="3">
         <v>3.3171519637107849E-2</v>
@@ -7441,7 +7486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -7464,19 +7509,19 @@
         <v>17</v>
       </c>
       <c r="J34" s="1">
-        <v>-0.12275754</v>
+        <v>-0.30010798999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>0.19658645999999999</v>
+        <v>0.19670492000000001</v>
       </c>
       <c r="L34" s="1">
         <v>26</v>
       </c>
       <c r="M34" s="1">
-        <v>-0.30010798999999999</v>
+        <v>-0.12275754</v>
       </c>
       <c r="N34" s="1">
-        <v>0.19670492000000001</v>
+        <v>0.19658645999999999</v>
       </c>
       <c r="O34" s="1">
         <v>26</v>
@@ -7644,7 +7689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -7667,22 +7712,22 @@
         <v>75</v>
       </c>
       <c r="J35" s="1">
+        <v>-0.16556562</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.11325154</v>
+      </c>
+      <c r="L35" s="1">
+        <v>82</v>
+      </c>
+      <c r="M35" s="1">
         <v>0.19146894</v>
       </c>
-      <c r="K35" s="1">
+      <c r="N35" s="1">
         <v>9.4052300000000005E-2</v>
       </c>
-      <c r="L35" s="1">
+      <c r="O35" s="1">
         <v>116</v>
-      </c>
-      <c r="M35" s="1">
-        <v>-0.16556562</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.11325154</v>
-      </c>
-      <c r="O35" s="1">
-        <v>82</v>
       </c>
       <c r="P35" s="3">
         <v>-5.1790449768304825E-2</v>
@@ -7847,7 +7892,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -7870,22 +7915,22 @@
         <v>46</v>
       </c>
       <c r="J36" s="1">
+        <v>0.13495009999999999</v>
+      </c>
+      <c r="K36" s="1">
+        <v>7.4933499000000001E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>187</v>
+      </c>
+      <c r="M36" s="1">
         <v>0.11995723</v>
       </c>
-      <c r="K36" s="1">
+      <c r="N36" s="1">
         <v>7.8841992E-2</v>
       </c>
-      <c r="L36" s="1">
+      <c r="O36" s="1">
         <v>170</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0.13495009999999999</v>
-      </c>
-      <c r="N36" s="1">
-        <v>7.4933499000000001E-2</v>
-      </c>
-      <c r="O36" s="1">
-        <v>187</v>
       </c>
       <c r="P36" s="3">
         <v>-1.2386496178805828E-2</v>
@@ -8050,7 +8095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -8064,22 +8109,22 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="J37" s="1">
+        <v>0.17742620000000001</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.17388234</v>
+      </c>
+      <c r="L37" s="1">
+        <v>33</v>
+      </c>
+      <c r="M37" s="1">
         <v>5.6592232999999999E-2</v>
       </c>
-      <c r="K37" s="1">
+      <c r="N37" s="1">
         <v>0.21904735</v>
       </c>
-      <c r="L37" s="1">
+      <c r="O37" s="1">
         <v>21</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.17742620000000001</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0.17388234</v>
-      </c>
-      <c r="O37" s="1">
-        <v>33</v>
       </c>
       <c r="P37" s="3">
         <v>-0.17265300452709198</v>
@@ -8238,7 +8283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -8252,19 +8297,19 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="J38" s="1">
-        <v>0.31406397000000003</v>
+        <v>-1.2427323000000001E-2</v>
       </c>
       <c r="K38" s="1">
-        <v>0.18568208999999999</v>
+        <v>0.18290888</v>
       </c>
       <c r="L38" s="1">
         <v>30</v>
       </c>
       <c r="M38" s="1">
-        <v>-1.2427323000000001E-2</v>
+        <v>0.31406397000000003</v>
       </c>
       <c r="N38" s="1">
-        <v>0.18290888</v>
+        <v>0.18568208999999999</v>
       </c>
       <c r="O38" s="1">
         <v>30</v>
@@ -8414,7 +8459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -8437,22 +8482,22 @@
         <v>35</v>
       </c>
       <c r="J39" s="1">
+        <v>0.20296586999999999</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9.6723667999999999E-2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>109</v>
+      </c>
+      <c r="M39" s="1">
         <v>0.19861002</v>
       </c>
-      <c r="K39" s="1">
+      <c r="N39" s="1">
         <v>0.13789709999999999</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O39" s="1">
         <v>53</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0.20296586999999999</v>
-      </c>
-      <c r="N39" s="1">
-        <v>9.6723667999999999E-2</v>
-      </c>
-      <c r="O39" s="1">
-        <v>109</v>
       </c>
       <c r="P39" s="3">
         <v>0.15543271601200104</v>
@@ -8617,7 +8662,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -8640,22 +8685,22 @@
         <v>147</v>
       </c>
       <c r="J40" s="1">
+        <v>1.7764433999999999E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5.1176257000000003E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>407</v>
+      </c>
+      <c r="M40" s="1">
         <v>-0.36182237</v>
       </c>
-      <c r="K40" s="1">
+      <c r="N40" s="1">
         <v>0.30149618</v>
       </c>
-      <c r="L40" s="1">
+      <c r="O40" s="1">
         <v>11</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1.7764433999999999E-2</v>
-      </c>
-      <c r="N40" s="1">
-        <v>5.1176257000000003E-2</v>
-      </c>
-      <c r="O40" s="1">
-        <v>407</v>
       </c>
       <c r="P40" s="3">
         <v>0.36810189485549927</v>
@@ -8814,7 +8859,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -8837,22 +8882,22 @@
         <v>23</v>
       </c>
       <c r="J41" s="1">
+        <v>-0.1162279</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.14328249000000001</v>
+      </c>
+      <c r="L41" s="1">
+        <v>49</v>
+      </c>
+      <c r="M41" s="1">
         <v>-8.2583770000000001E-2</v>
       </c>
-      <c r="K41" s="1">
+      <c r="N41" s="1">
         <v>0.18049371</v>
       </c>
-      <c r="L41" s="1">
+      <c r="O41" s="1">
         <v>32</v>
-      </c>
-      <c r="M41" s="1">
-        <v>-0.1162279</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.14328249000000001</v>
-      </c>
-      <c r="O41" s="1">
-        <v>49</v>
       </c>
       <c r="P41" s="3">
         <v>0.12099709361791611</v>
@@ -9017,7 +9062,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -9040,22 +9085,22 @@
         <v>315</v>
       </c>
       <c r="J42" s="1">
+        <v>0.17259016999999999</v>
+      </c>
+      <c r="K42" s="1">
+        <v>4.7893707000000001E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>465</v>
+      </c>
+      <c r="M42" s="1">
         <v>9.7727231999999997E-2</v>
       </c>
-      <c r="K42" s="1">
+      <c r="N42" s="1">
         <v>5.0068769999999999E-2</v>
       </c>
-      <c r="L42" s="1">
+      <c r="O42" s="1">
         <v>429</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0.17259016999999999</v>
-      </c>
-      <c r="N42" s="1">
-        <v>4.7893707000000001E-2</v>
-      </c>
-      <c r="O42" s="1">
-        <v>465</v>
       </c>
       <c r="P42" s="3">
         <v>0.1450667530298233</v>
@@ -9175,7 +9220,7 @@
         <v>97</v>
       </c>
       <c r="BC42" s="3">
-        <v>0.15744400024414063</v>
+        <v>0.15744400024414062</v>
       </c>
       <c r="BD42" s="3">
         <v>9.980667382478714E-2</v>
@@ -9220,7 +9265,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -9243,22 +9288,22 @@
         <v>28</v>
       </c>
       <c r="J43" s="1">
+        <v>4.7026366E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.17155349</v>
+      </c>
+      <c r="L43" s="1">
+        <v>34</v>
+      </c>
+      <c r="M43" s="1">
         <v>0.25617683000000002</v>
       </c>
-      <c r="K43" s="1">
+      <c r="N43" s="1">
         <v>0.13559056999999999</v>
       </c>
-      <c r="L43" s="1">
+      <c r="O43" s="1">
         <v>55</v>
-      </c>
-      <c r="M43" s="1">
-        <v>4.7026366E-2</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.17155349</v>
-      </c>
-      <c r="O43" s="1">
-        <v>34</v>
       </c>
       <c r="P43" s="3">
         <v>1.283739972859621E-2</v>
@@ -9423,7 +9468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -9446,22 +9491,22 @@
         <v>128</v>
       </c>
       <c r="J44" s="1">
+        <v>0.27818831999999999</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.10155027</v>
+      </c>
+      <c r="L44" s="1">
+        <v>101</v>
+      </c>
+      <c r="M44" s="1">
         <v>0.19937099999999999</v>
       </c>
-      <c r="K44" s="1">
+      <c r="N44" s="1">
         <v>0.10856984</v>
       </c>
-      <c r="L44" s="1">
+      <c r="O44" s="1">
         <v>86</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0.27818831999999999</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0.10155027</v>
-      </c>
-      <c r="O44" s="1">
-        <v>101</v>
       </c>
       <c r="P44" s="3">
         <v>0.18215137720108032</v>
@@ -9626,7 +9671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -9649,22 +9694,22 @@
         <v>36</v>
       </c>
       <c r="J45" s="1">
+        <v>0.26189943999999998</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.17233214999999999</v>
+      </c>
+      <c r="L45" s="1">
+        <v>36</v>
+      </c>
+      <c r="M45" s="1">
         <v>0.31684183999999999</v>
       </c>
-      <c r="K45" s="1">
+      <c r="N45" s="1">
         <v>0.16993783000000001</v>
       </c>
-      <c r="L45" s="1">
+      <c r="O45" s="1">
         <v>35</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.26189943999999998</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0.17233214999999999</v>
-      </c>
-      <c r="O45" s="1">
-        <v>36</v>
       </c>
       <c r="P45" s="3">
         <v>0.10648942738771439</v>
@@ -9811,7 +9856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -9834,22 +9879,22 @@
         <v>829</v>
       </c>
       <c r="J46" s="1">
+        <v>0.28353374999999997</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4.5622844000000003E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>526</v>
+      </c>
+      <c r="M46" s="1">
         <v>0.33067665000000002</v>
       </c>
-      <c r="K46" s="1">
+      <c r="N46" s="1">
         <v>4.8374843000000001E-2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="O46" s="1">
         <v>474</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.28353374999999997</v>
-      </c>
-      <c r="N46" s="1">
-        <v>4.5622844000000003E-2</v>
-      </c>
-      <c r="O46" s="1">
-        <v>526</v>
       </c>
       <c r="P46" s="3">
         <v>0.32280546426773071</v>
@@ -10014,7 +10059,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -10037,22 +10082,22 @@
         <v>31</v>
       </c>
       <c r="J47" s="1">
+        <v>-1.3521273E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.14968957999999999</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45</v>
+      </c>
+      <c r="M47" s="1">
         <v>0.17254976999999999</v>
       </c>
-      <c r="K47" s="1">
+      <c r="N47" s="1">
         <v>0.16509055</v>
       </c>
-      <c r="L47" s="1">
+      <c r="O47" s="1">
         <v>40</v>
-      </c>
-      <c r="M47" s="1">
-        <v>-1.3521273E-2</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0.14968957999999999</v>
-      </c>
-      <c r="O47" s="1">
-        <v>45</v>
       </c>
       <c r="P47" s="3">
         <v>0.27816501259803772</v>
@@ -10217,7 +10262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -10336,7 +10381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -10358,13 +10403,13 @@
       <c r="I49" s="1">
         <v>29</v>
       </c>
-      <c r="J49" s="1">
+      <c r="M49" s="1">
         <v>0.67205053999999997</v>
       </c>
-      <c r="K49" s="1">
+      <c r="N49" s="1">
         <v>0.29089859000000001</v>
       </c>
-      <c r="L49" s="1">
+      <c r="O49" s="1">
         <v>12</v>
       </c>
       <c r="P49" s="3">
@@ -10512,7 +10557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -10604,7 +10649,7 @@
       <c r="BP50" s="3"/>
       <c r="BQ50" s="2"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -10626,13 +10671,13 @@
       <c r="I51" s="1">
         <v>9</v>
       </c>
-      <c r="J51" s="1">
+      <c r="M51" s="1">
         <v>0.39964812999999999</v>
       </c>
-      <c r="K51" s="1">
+      <c r="N51" s="1">
         <v>0.41070423</v>
       </c>
-      <c r="L51" s="1">
+      <c r="O51" s="1">
         <v>6</v>
       </c>
       <c r="P51" s="3"/>
@@ -10780,7 +10825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -10803,22 +10848,22 @@
         <v>596</v>
       </c>
       <c r="J52" s="1">
+        <v>0.35508674000000001</v>
+      </c>
+      <c r="K52" s="1">
+        <v>5.5044114999999998E-2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>352</v>
+      </c>
+      <c r="M52" s="1">
         <v>0.37623569000000001</v>
       </c>
-      <c r="K52" s="1">
+      <c r="N52" s="1">
         <v>5.7503487999999998E-2</v>
       </c>
-      <c r="L52" s="1">
+      <c r="O52" s="1">
         <v>324</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0.35508674000000001</v>
-      </c>
-      <c r="N52" s="1">
-        <v>5.5044114999999998E-2</v>
-      </c>
-      <c r="O52" s="1">
-        <v>352</v>
       </c>
       <c r="P52" s="3">
         <v>0.40666696429252625</v>
@@ -10983,7 +11028,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -11006,22 +11051,22 @@
         <v>379</v>
       </c>
       <c r="J53" s="1">
+        <v>0.31722164000000003</v>
+      </c>
+      <c r="K53" s="1">
+        <v>7.1930728999999999E-2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>202</v>
+      </c>
+      <c r="M53" s="1">
         <v>0.42281585999999999</v>
       </c>
-      <c r="K53" s="1">
+      <c r="N53" s="1">
         <v>7.3879405999999995E-2</v>
       </c>
-      <c r="L53" s="1">
+      <c r="O53" s="1">
         <v>191</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0.31722164000000003</v>
-      </c>
-      <c r="N53" s="1">
-        <v>7.1930728999999999E-2</v>
-      </c>
-      <c r="O53" s="1">
-        <v>202</v>
       </c>
       <c r="P53" s="3">
         <v>0.37686240673065186</v>
@@ -11186,7 +11231,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -11209,22 +11254,22 @@
         <v>70</v>
       </c>
       <c r="J54" s="1">
+        <v>0.18398813999999999</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.16505554</v>
+      </c>
+      <c r="L54" s="1">
+        <v>38</v>
+      </c>
+      <c r="M54" s="1">
         <v>0.27682707000000001</v>
       </c>
-      <c r="K54" s="1">
+      <c r="N54" s="1">
         <v>0.15220141000000001</v>
       </c>
-      <c r="L54" s="1">
+      <c r="O54" s="1">
         <v>45</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0.18398813999999999</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0.16505554</v>
-      </c>
-      <c r="O54" s="1">
-        <v>38</v>
       </c>
       <c r="P54" s="3">
         <v>-3.4351687878370285E-2</v>
@@ -11389,7 +11434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -11499,7 +11544,7 @@
         <v>0.11351429671049118</v>
       </c>
       <c r="BA55" s="3">
-        <v>0.28899002075195313</v>
+        <v>0.28899002075195312</v>
       </c>
       <c r="BB55" s="2">
         <v>12</v>
@@ -11550,7 +11595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -11573,22 +11618,22 @@
         <v>23</v>
       </c>
       <c r="J56" s="1">
+        <v>0.56460189999999999</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.23007314000000001</v>
+      </c>
+      <c r="L56" s="1">
+        <v>19</v>
+      </c>
+      <c r="M56" s="1">
         <v>0.16968198000000001</v>
       </c>
-      <c r="K56" s="1">
+      <c r="N56" s="1">
         <v>0.37496361</v>
       </c>
-      <c r="L56" s="1">
+      <c r="O56" s="1">
         <v>7</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0.56460189999999999</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0.23007314000000001</v>
-      </c>
-      <c r="O56" s="1">
-        <v>19</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -11609,7 +11654,7 @@
         <v>5</v>
       </c>
       <c r="AB56" s="3">
-        <v>0.77150344848632813</v>
+        <v>0.77150344848632812</v>
       </c>
       <c r="AC56" s="3">
         <v>0.25014743208885193</v>
@@ -11735,7 +11780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -11758,22 +11803,22 @@
         <v>80</v>
       </c>
       <c r="J57" s="1">
+        <v>0.18719064999999999</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.12682493</v>
+      </c>
+      <c r="L57" s="1">
+        <v>65</v>
+      </c>
+      <c r="M57" s="1">
         <v>0.26457270999999999</v>
       </c>
-      <c r="K57" s="1">
+      <c r="N57" s="1">
         <v>0.14815339</v>
       </c>
-      <c r="L57" s="1">
+      <c r="O57" s="1">
         <v>46</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0.18719064999999999</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0.12682493</v>
-      </c>
-      <c r="O57" s="1">
-        <v>65</v>
       </c>
       <c r="P57" s="3">
         <v>-6.8856723606586456E-2</v>
@@ -11938,7 +11983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -11961,22 +12006,22 @@
         <v>186</v>
       </c>
       <c r="J58" s="1">
+        <v>0.29259962</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.12009446</v>
+      </c>
+      <c r="L58" s="1">
+        <v>72</v>
+      </c>
+      <c r="M58" s="1">
         <v>0.19245145999999999</v>
       </c>
-      <c r="K58" s="1">
+      <c r="N58" s="1">
         <v>0.13811661</v>
       </c>
-      <c r="L58" s="1">
+      <c r="O58" s="1">
         <v>53</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0.29259962</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0.12009446</v>
-      </c>
-      <c r="O58" s="1">
-        <v>72</v>
       </c>
       <c r="P58" s="3">
         <v>0.20326043665409088</v>
@@ -12141,7 +12186,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -12164,22 +12209,22 @@
         <v>53</v>
       </c>
       <c r="J59" s="1">
+        <v>-0.16226761000000001</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.18963042999999999</v>
+      </c>
+      <c r="L59" s="1">
+        <v>28</v>
+      </c>
+      <c r="M59" s="1">
         <v>-0.45071009000000001</v>
       </c>
-      <c r="K59" s="1">
+      <c r="N59" s="1">
         <v>0.23600057999999999</v>
       </c>
-      <c r="L59" s="1">
+      <c r="O59" s="1">
         <v>18</v>
-      </c>
-      <c r="M59" s="1">
-        <v>-0.16226761000000001</v>
-      </c>
-      <c r="N59" s="1">
-        <v>0.18963042999999999</v>
-      </c>
-      <c r="O59" s="1">
-        <v>28</v>
       </c>
       <c r="P59" s="3">
         <v>-0.346292644739151</v>
@@ -12344,7 +12389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -12505,7 +12550,7 @@
       <c r="BP60" s="3"/>
       <c r="BQ60" s="2"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -12527,13 +12572,13 @@
       <c r="I61" s="1">
         <v>8</v>
       </c>
-      <c r="J61" s="1">
+      <c r="M61" s="1">
         <v>0.47718588000000001</v>
       </c>
-      <c r="K61" s="1">
+      <c r="N61" s="1">
         <v>0.33244041000000002</v>
       </c>
-      <c r="L61" s="1">
+      <c r="O61" s="1">
         <v>9</v>
       </c>
       <c r="P61" s="3"/>
@@ -12633,7 +12678,7 @@
       <c r="BP61" s="3"/>
       <c r="BQ61" s="2"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -12719,7 +12764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -12742,22 +12787,22 @@
         <v>7</v>
       </c>
       <c r="J63" s="1">
+        <v>0.38008558999999997</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.45141613000000003</v>
+      </c>
+      <c r="L63" s="1">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1">
         <v>0.35474454999999999</v>
       </c>
-      <c r="K63" s="1">
+      <c r="N63" s="1">
         <v>0.33480018</v>
       </c>
-      <c r="L63" s="1">
+      <c r="O63" s="1">
         <v>9</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0.38008558999999997</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0.45141613000000003</v>
-      </c>
-      <c r="O63" s="1">
-        <v>5</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
@@ -12904,7 +12949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -12927,22 +12972,22 @@
         <v>21</v>
       </c>
       <c r="J64" s="1">
+        <v>0.32437754000000002</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.18070138999999999</v>
+      </c>
+      <c r="L64" s="1">
+        <v>31</v>
+      </c>
+      <c r="M64" s="1">
         <v>0.13170086</v>
       </c>
-      <c r="K64" s="1">
+      <c r="N64" s="1">
         <v>0.17777602000000001</v>
       </c>
-      <c r="L64" s="1">
+      <c r="O64" s="1">
         <v>32</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0.32437754000000002</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0.18070138999999999</v>
-      </c>
-      <c r="O64" s="1">
-        <v>31</v>
       </c>
       <c r="P64" s="3">
         <v>0.29871892929077148</v>
@@ -13083,7 +13128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -13169,7 +13214,7 @@
       <c r="BP65" s="3"/>
       <c r="BQ65" s="2"/>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -13261,7 +13306,7 @@
       <c r="BP66" s="3"/>
       <c r="BQ66" s="2"/>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -13353,7 +13398,7 @@
       <c r="BP67" s="3"/>
       <c r="BQ67" s="2"/>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -13469,7 +13514,7 @@
       <c r="BP68" s="3"/>
       <c r="BQ68" s="2"/>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -13534,7 +13579,7 @@
         <v>30</v>
       </c>
       <c r="AQ69" s="3">
-        <v>0.86688613891601563</v>
+        <v>0.86688613891601562</v>
       </c>
       <c r="AR69" s="3">
         <v>0.35369902849197388</v>
@@ -13573,7 +13618,7 @@
       <c r="BP69" s="3"/>
       <c r="BQ69" s="2"/>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -13707,7 +13752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -13775,7 +13820,7 @@
       <c r="BP71" s="3"/>
       <c r="BQ71" s="2"/>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -13798,22 +13843,22 @@
         <v>25</v>
       </c>
       <c r="J72" s="1">
+        <v>-6.5393365999999994E-2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.25817909999999999</v>
+      </c>
+      <c r="L72" s="1">
+        <v>16</v>
+      </c>
+      <c r="M72" s="1">
         <v>0.36646134000000002</v>
       </c>
-      <c r="K72" s="1">
+      <c r="N72" s="1">
         <v>0.18332280000000001</v>
       </c>
-      <c r="L72" s="1">
+      <c r="O72" s="1">
         <v>30</v>
-      </c>
-      <c r="M72" s="1">
-        <v>-6.5393365999999994E-2</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0.25817909999999999</v>
-      </c>
-      <c r="O72" s="1">
-        <v>16</v>
       </c>
       <c r="P72" s="3">
         <v>0.5615425705909729</v>
@@ -13954,7 +13999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -13977,22 +14022,22 @@
         <v>37</v>
       </c>
       <c r="J73" s="1">
+        <v>-0.23243552000000001</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.31666972999999998</v>
+      </c>
+      <c r="L73" s="1">
+        <v>10</v>
+      </c>
+      <c r="M73" s="1">
         <v>-0.49029434</v>
       </c>
-      <c r="K73" s="1">
+      <c r="N73" s="1">
         <v>0.35466206</v>
       </c>
-      <c r="L73" s="1">
+      <c r="O73" s="1">
         <v>8</v>
-      </c>
-      <c r="M73" s="1">
-        <v>-0.23243552000000001</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0.31666972999999998</v>
-      </c>
-      <c r="O73" s="1">
-        <v>10</v>
       </c>
       <c r="P73" s="3">
         <v>0.32220706343650818</v>
@@ -14157,7 +14202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -14180,22 +14225,22 @@
         <v>39</v>
       </c>
       <c r="J74" s="1">
+        <v>5.1170255999999997E-2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.25885492999999998</v>
+      </c>
+      <c r="L74" s="1">
+        <v>15</v>
+      </c>
+      <c r="M74" s="1">
         <v>0.12766068999999999</v>
       </c>
-      <c r="K74" s="1">
+      <c r="N74" s="1">
         <v>0.24329765</v>
       </c>
-      <c r="L74" s="1">
+      <c r="O74" s="1">
         <v>17</v>
-      </c>
-      <c r="M74" s="1">
-        <v>5.1170255999999997E-2</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0.25885492999999998</v>
-      </c>
-      <c r="O74" s="1">
-        <v>15</v>
       </c>
       <c r="P74" s="3">
         <v>0.35003030300140381</v>
@@ -14354,7 +14399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -14452,7 +14497,7 @@
       <c r="BP75" s="3"/>
       <c r="BQ75" s="2"/>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -14526,7 +14571,7 @@
       <c r="BP76" s="3"/>
       <c r="BQ76" s="2"/>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -14549,22 +14594,22 @@
         <v>10</v>
       </c>
       <c r="J77" s="1">
+        <v>4.0077381000000002E-2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.33329852999999998</v>
+      </c>
+      <c r="L77" s="1">
+        <v>9</v>
+      </c>
+      <c r="M77" s="1">
         <v>0.15368286</v>
       </c>
-      <c r="K77" s="1">
+      <c r="N77" s="1">
         <v>0.35529812999999999</v>
       </c>
-      <c r="L77" s="1">
+      <c r="O77" s="1">
         <v>8</v>
-      </c>
-      <c r="M77" s="1">
-        <v>4.0077381000000002E-2</v>
-      </c>
-      <c r="N77" s="1">
-        <v>0.33329852999999998</v>
-      </c>
-      <c r="O77" s="1">
-        <v>9</v>
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
@@ -14669,7 +14714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -14815,7 +14860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
@@ -14937,7 +14982,7 @@
       <c r="BP79" s="3"/>
       <c r="BQ79" s="2"/>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -15017,7 +15062,7 @@
       <c r="BP80" s="3"/>
       <c r="BQ80" s="2"/>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -15085,7 +15130,7 @@
       <c r="BP81" s="3"/>
       <c r="BQ81" s="2"/>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -15107,13 +15152,13 @@
       <c r="I82" s="1">
         <v>19</v>
       </c>
-      <c r="J82" s="1">
+      <c r="M82" s="1">
         <v>-0.23048933999999999</v>
       </c>
-      <c r="K82" s="1">
+      <c r="N82" s="1">
         <v>0.40758138999999999</v>
       </c>
-      <c r="L82" s="1">
+      <c r="O82" s="1">
         <v>6</v>
       </c>
       <c r="P82" s="3"/>
@@ -15267,7 +15312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -15371,7 +15416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -15454,7 +15499,7 @@
       <c r="BP84" s="3"/>
       <c r="BQ84" s="2"/>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -15477,22 +15522,22 @@
         <v>68</v>
       </c>
       <c r="J85" s="1">
+        <v>-1.3016099999999999E-2</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.16979918999999999</v>
+      </c>
+      <c r="L85" s="1">
+        <v>35</v>
+      </c>
+      <c r="M85" s="1">
         <v>-0.26363721000000001</v>
       </c>
-      <c r="K85" s="1">
+      <c r="N85" s="1">
         <v>0.17996334999999999</v>
       </c>
-      <c r="L85" s="1">
+      <c r="O85" s="1">
         <v>31</v>
-      </c>
-      <c r="M85" s="1">
-        <v>-1.3016099999999999E-2</v>
-      </c>
-      <c r="N85" s="1">
-        <v>0.16979918999999999</v>
-      </c>
-      <c r="O85" s="1">
-        <v>35</v>
       </c>
       <c r="P85" s="3">
         <v>-0.28625050187110901</v>
@@ -15657,7 +15702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -15680,22 +15725,22 @@
         <v>27</v>
       </c>
       <c r="J86" s="1">
+        <v>0.30159851999999998</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.17261130999999999</v>
+      </c>
+      <c r="L86" s="1">
+        <v>34</v>
+      </c>
+      <c r="M86" s="1">
         <v>0.17415974000000001</v>
       </c>
-      <c r="K86" s="1">
+      <c r="N86" s="1">
         <v>0.15898472</v>
       </c>
-      <c r="L86" s="1">
+      <c r="O86" s="1">
         <v>40</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0.30159851999999998</v>
-      </c>
-      <c r="N86" s="1">
-        <v>0.17261130999999999</v>
-      </c>
-      <c r="O86" s="1">
-        <v>34</v>
       </c>
       <c r="P86" s="3">
         <v>0.11327459663152695</v>
@@ -15860,7 +15905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -15883,22 +15928,22 @@
         <v>95</v>
       </c>
       <c r="J87" s="1">
+        <v>-4.0784657000000002E-2</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.16268337999999999</v>
+      </c>
+      <c r="L87" s="1">
+        <v>39</v>
+      </c>
+      <c r="M87" s="1">
         <v>0.14712067000000001</v>
       </c>
-      <c r="K87" s="1">
+      <c r="N87" s="1">
         <v>0.13957836000000001</v>
       </c>
-      <c r="L87" s="1">
+      <c r="O87" s="1">
         <v>52</v>
-      </c>
-      <c r="M87" s="1">
-        <v>-4.0784657000000002E-2</v>
-      </c>
-      <c r="N87" s="1">
-        <v>0.16268337999999999</v>
-      </c>
-      <c r="O87" s="1">
-        <v>39</v>
       </c>
       <c r="P87" s="3">
         <v>0.50651144981384277</v>
@@ -16063,7 +16108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -16086,19 +16131,19 @@
         <v>11</v>
       </c>
       <c r="J88" s="1">
-        <v>0.24809091</v>
+        <v>8.3179586E-2</v>
       </c>
       <c r="K88" s="1">
-        <v>0.31779080999999998</v>
+        <v>0.31640204999999999</v>
       </c>
       <c r="L88" s="1">
         <v>10</v>
       </c>
       <c r="M88" s="1">
-        <v>8.3179586E-2</v>
+        <v>0.24809091</v>
       </c>
       <c r="N88" s="1">
-        <v>0.31640204999999999</v>
+        <v>0.31779080999999998</v>
       </c>
       <c r="O88" s="1">
         <v>10</v>
@@ -16218,7 +16263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -16385,7 +16430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
@@ -16408,22 +16453,22 @@
         <v>30</v>
       </c>
       <c r="J90" s="1">
+        <v>-0.40362787</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.35288428999999999</v>
+      </c>
+      <c r="L90" s="1">
+        <v>8</v>
+      </c>
+      <c r="M90" s="1">
         <v>-0.3251811</v>
       </c>
-      <c r="K90" s="1">
+      <c r="N90" s="1">
         <v>0.31669709000000001</v>
       </c>
-      <c r="L90" s="1">
+      <c r="O90" s="1">
         <v>10</v>
-      </c>
-      <c r="M90" s="1">
-        <v>-0.40362787</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0.35288428999999999</v>
-      </c>
-      <c r="O90" s="1">
-        <v>8</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
@@ -16576,7 +16621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -16599,22 +16644,22 @@
         <v>169</v>
       </c>
       <c r="J91" s="1">
+        <v>5.1887813999999997E-2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>9.8419919999999994E-2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>106</v>
+      </c>
+      <c r="M91" s="1">
         <v>-1.9233953000000002E-2</v>
       </c>
-      <c r="K91" s="1">
+      <c r="N91" s="1">
         <v>9.5163487000000005E-2</v>
       </c>
-      <c r="L91" s="1">
+      <c r="O91" s="1">
         <v>113</v>
-      </c>
-      <c r="M91" s="1">
-        <v>5.1887813999999997E-2</v>
-      </c>
-      <c r="N91" s="1">
-        <v>9.8419919999999994E-2</v>
-      </c>
-      <c r="O91" s="1">
-        <v>106</v>
       </c>
       <c r="P91" s="3">
         <v>6.7956313490867615E-2</v>
@@ -16779,7 +16824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -16802,22 +16847,22 @@
         <v>222</v>
       </c>
       <c r="J92" s="1">
+        <v>0.12801860000000001</v>
+      </c>
+      <c r="K92" s="1">
+        <v>3.6235981E-2</v>
+      </c>
+      <c r="L92" s="1">
+        <v>861</v>
+      </c>
+      <c r="M92" s="1">
         <v>0.22841331000000001</v>
       </c>
-      <c r="K92" s="1">
+      <c r="N92" s="1">
         <v>4.3744113000000001E-2</v>
       </c>
-      <c r="L92" s="1">
+      <c r="O92" s="1">
         <v>572</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0.12801860000000001</v>
-      </c>
-      <c r="N92" s="1">
-        <v>3.6235981E-2</v>
-      </c>
-      <c r="O92" s="1">
-        <v>861</v>
       </c>
       <c r="P92" s="3">
         <v>0.22572477161884308</v>
@@ -16982,7 +17027,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -17005,22 +17050,22 @@
         <v>186</v>
       </c>
       <c r="J93" s="1">
+        <v>0.12640443000000001</v>
+      </c>
+      <c r="K93" s="1">
+        <v>5.0888553000000003E-2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>413</v>
+      </c>
+      <c r="M93" s="1">
         <v>0.28814911999999998</v>
       </c>
-      <c r="K93" s="1">
+      <c r="N93" s="1">
         <v>5.7777449000000002E-2</v>
       </c>
-      <c r="L93" s="1">
+      <c r="O93" s="1">
         <v>315</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0.12640443000000001</v>
-      </c>
-      <c r="N93" s="1">
-        <v>5.0888553000000003E-2</v>
-      </c>
-      <c r="O93" s="1">
-        <v>413</v>
       </c>
       <c r="P93" s="3">
         <v>3.931533545255661E-2</v>

--- a/Atlas application All heatmaps ver2/data/dataMen.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataMen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/c870b7ff5e4342f7969b500139a3da9c/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A63E98-F2FE-BE43-8D0D-5CC71120DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068D559-8B38-DC48-A470-6ED3CD7BAB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14200" yWindow="500" windowWidth="19400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
   <si>
     <t>date</t>
   </si>
@@ -313,478 +313,349 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>mental</t>
-  </si>
-  <si>
-    <t>mental_organic</t>
-  </si>
-  <si>
-    <t>mental_psychoactive</t>
-  </si>
-  <si>
-    <t>mental_schizo_spectrum</t>
-  </si>
-  <si>
-    <t>mental_schizo</t>
-  </si>
-  <si>
-    <t>mental_mood</t>
-  </si>
-  <si>
-    <t>mental_mood_bipolar</t>
-  </si>
-  <si>
-    <t>mental_mood_depression</t>
-  </si>
-  <si>
-    <t>mental_neurotic</t>
-  </si>
-  <si>
-    <t>mental_neurotic_ocd</t>
-  </si>
-  <si>
-    <t>mental_behavioral</t>
-  </si>
-  <si>
-    <t>mental_behavioral_anex</t>
-  </si>
-  <si>
-    <t>mental_adult</t>
-  </si>
-  <si>
-    <t>mental_retardation</t>
-  </si>
-  <si>
-    <t>mental_development</t>
-  </si>
-  <si>
-    <t>mental_emotional</t>
-  </si>
-  <si>
-    <t>mental_emotional_adhd</t>
-  </si>
-  <si>
-    <t>mental_emotional_tic</t>
-  </si>
-  <si>
-    <t>mental_unspecified</t>
-  </si>
-  <si>
-    <t>cm_diabetes</t>
-  </si>
-  <si>
-    <t>cm_doutpreg</t>
-  </si>
-  <si>
-    <t>cm_t1d</t>
-  </si>
-  <si>
-    <t>cm_t2d</t>
-  </si>
-  <si>
-    <t>cm_dinpreg</t>
-  </si>
-  <si>
-    <t>cm_obesity</t>
-  </si>
-  <si>
-    <t>cm_hypertension</t>
-  </si>
-  <si>
-    <t>cm_hypoutpred</t>
-  </si>
-  <si>
-    <t>cm_hypinpred</t>
-  </si>
-  <si>
-    <t>cm_preeclampsia</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>bd_cns</t>
-  </si>
-  <si>
-    <t>bd_eye</t>
-  </si>
-  <si>
-    <t>bd_ear</t>
-  </si>
-  <si>
-    <t>bd_heart</t>
-  </si>
-  <si>
-    <t>bd_respiratory</t>
-  </si>
-  <si>
-    <t>bd_lip</t>
-  </si>
-  <si>
-    <t>bd_digestive</t>
-  </si>
-  <si>
-    <t>bd_genital</t>
-  </si>
-  <si>
-    <t>bd_urinary</t>
-  </si>
-  <si>
-    <t>bd_musculoskeletal</t>
-  </si>
-  <si>
-    <t>bd_skin</t>
-  </si>
-  <si>
-    <t>bd_other</t>
-  </si>
-  <si>
-    <t>bd_asdspecific</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>ne_inflammatory</t>
-  </si>
-  <si>
-    <t>ne_systemic</t>
-  </si>
-  <si>
-    <t>ne_extrapyramid</t>
-  </si>
-  <si>
-    <t>ne_otherdegene</t>
-  </si>
-  <si>
-    <t>ne_demyelinating</t>
-  </si>
-  <si>
-    <t>ne_episodic</t>
-  </si>
-  <si>
-    <t>ne_episodic_epilep</t>
-  </si>
-  <si>
-    <t>ne_nerve</t>
-  </si>
-  <si>
-    <t>ne_polynepathi</t>
-  </si>
-  <si>
-    <t>ne_myoneural</t>
-  </si>
-  <si>
-    <t>ne_cerebralpal</t>
-  </si>
-  <si>
-    <t>ne_other</t>
-  </si>
-  <si>
-    <t>ai_t1d</t>
-  </si>
-  <si>
-    <t>ai_thyrotoxico</t>
-  </si>
-  <si>
-    <t>ai_thyroiditis</t>
-  </si>
-  <si>
-    <t>ai_adrenocortical</t>
-  </si>
-  <si>
-    <t>ai_rheumatoid</t>
-  </si>
-  <si>
-    <t>ai_juvenile</t>
-  </si>
-  <si>
-    <t>ai_dermatopolymyo</t>
-  </si>
-  <si>
-    <t>ai_polymyalgia</t>
-  </si>
-  <si>
-    <t>ai_scleroderma</t>
-  </si>
-  <si>
-    <t>ai_erythemato</t>
-  </si>
-  <si>
-    <t>ai_sjogren</t>
-  </si>
-  <si>
-    <t>ai_spondili</t>
-  </si>
-  <si>
-    <t>ai_granulomato</t>
-  </si>
-  <si>
-    <t>ai_celiac</t>
-  </si>
-  <si>
-    <t>ai_crohn</t>
-  </si>
-  <si>
-    <t>ai_colitis</t>
-  </si>
-  <si>
-    <t>ai_pernicious</t>
-  </si>
-  <si>
-    <t>ai_hemolytic</t>
-  </si>
-  <si>
-    <t>ai_purpura</t>
-  </si>
-  <si>
-    <t>ai_sclerosis</t>
-  </si>
-  <si>
-    <t>ai_guillainbar</t>
-  </si>
-  <si>
-    <t>ai_gravis</t>
-  </si>
-  <si>
-    <t>ai_pemphigus</t>
-  </si>
-  <si>
-    <t>ai_psoriasis</t>
-  </si>
-  <si>
-    <t>ai_areata</t>
-  </si>
-  <si>
-    <t>ai_vitiligo</t>
-  </si>
-  <si>
-    <t>ai_endocrine</t>
-  </si>
-  <si>
-    <t>ai_connective</t>
-  </si>
-  <si>
-    <t>ai_gastrointest</t>
-  </si>
-  <si>
-    <t>ai_blood</t>
-  </si>
-  <si>
-    <t>ai_nervous</t>
-  </si>
-  <si>
-    <t>ai_skin</t>
-  </si>
-  <si>
-    <t>autoimmune</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>allergies</t>
-  </si>
-  <si>
-    <t>child_0_est</t>
-  </si>
-  <si>
-    <t>child_0_se</t>
-  </si>
-  <si>
-    <t>child_0_n</t>
-  </si>
-  <si>
-    <t>child_1_est</t>
-  </si>
-  <si>
-    <t>child_1_se</t>
-  </si>
-  <si>
-    <t>child_1_n</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex0_est</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex0_se</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex0_n</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex0_est</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex0_se</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex0_n</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex1_est</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex1_se</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex1_n</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex1_est</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex1_se</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex1_n</t>
-  </si>
-  <si>
-    <t>m_est</t>
-  </si>
-  <si>
-    <t>m_se</t>
-  </si>
-  <si>
-    <t>m_n</t>
-  </si>
-  <si>
-    <t>f_est</t>
-  </si>
-  <si>
-    <t>f_se</t>
-  </si>
-  <si>
-    <t>f_n</t>
-  </si>
-  <si>
-    <t>mm_est</t>
-  </si>
-  <si>
-    <t>mm_se</t>
-  </si>
-  <si>
-    <t>mm_n</t>
-  </si>
-  <si>
-    <t>mf_est</t>
-  </si>
-  <si>
-    <t>mf_se</t>
-  </si>
-  <si>
-    <t>mf_n</t>
-  </si>
-  <si>
-    <t>fm_est</t>
-  </si>
-  <si>
-    <t>fm_se</t>
-  </si>
-  <si>
-    <t>fm_n</t>
-  </si>
-  <si>
-    <t>ff_est</t>
-  </si>
-  <si>
-    <t>ff_se</t>
-  </si>
-  <si>
-    <t>ff_n</t>
-  </si>
-  <si>
-    <t>mua_0_est</t>
-  </si>
-  <si>
-    <t>mua_0_se</t>
-  </si>
-  <si>
-    <t>mua_0_n</t>
-  </si>
-  <si>
-    <t>mua_1_est</t>
-  </si>
-  <si>
-    <t>mua_1_se</t>
-  </si>
-  <si>
-    <t>mua_1_n</t>
-  </si>
-  <si>
-    <t>pua_0_est</t>
-  </si>
-  <si>
-    <t>pua_0_se</t>
-  </si>
-  <si>
-    <t>pua_0_n</t>
-  </si>
-  <si>
-    <t>pua_1_est</t>
-  </si>
-  <si>
-    <t>pua_1_se</t>
-  </si>
-  <si>
-    <t>pua_1_n</t>
-  </si>
-  <si>
-    <t>mcou_0_est</t>
-  </si>
-  <si>
-    <t>mcou_0_se</t>
-  </si>
-  <si>
-    <t>mcou_0_n</t>
-  </si>
-  <si>
-    <t>mcou_1_est</t>
-  </si>
-  <si>
-    <t>mcou_1_se</t>
-  </si>
-  <si>
-    <t>mcou_1_n</t>
-  </si>
-  <si>
-    <t>pcou_0_est</t>
-  </si>
-  <si>
-    <t>pcou_0_se</t>
-  </si>
-  <si>
-    <t>pcou_0_n</t>
-  </si>
-  <si>
-    <t>pcou_1_est</t>
-  </si>
-  <si>
-    <t>pcou_1_se</t>
-  </si>
-  <si>
-    <t>pcou_1_n</t>
-  </si>
-  <si>
-    <t>sib1_sex0_est</t>
-  </si>
-  <si>
-    <t>sib1_sex0_se</t>
-  </si>
-  <si>
-    <t>sib1_sex0_n</t>
-  </si>
-  <si>
-    <t>sib1_sex1_est</t>
-  </si>
-  <si>
-    <t>sib1_sex1_se</t>
-  </si>
-  <si>
-    <t>sib1_sex1_n</t>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Any mental</t>
+  </si>
+  <si>
+    <t>Organic mental</t>
+  </si>
+  <si>
+    <t>Psychoactive sub use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schizophrenia spectrum </t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any mood </t>
+  </si>
+  <si>
+    <t>Bipolar disorder</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Neurotic/stress disorder</t>
+  </si>
+  <si>
+    <t>OCD</t>
+  </si>
+  <si>
+    <t>Behav synd-physiol</t>
+  </si>
+  <si>
+    <t>Anorexia nervosa</t>
+  </si>
+  <si>
+    <t>Adult personality disorder</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>Psych dev dis.not ASD</t>
+  </si>
+  <si>
+    <t>Behav dis-child onset</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Tic disorder</t>
+  </si>
+  <si>
+    <t>Mental-unspecified</t>
+  </si>
+  <si>
+    <t>Any diabetes</t>
+  </si>
+  <si>
+    <t>Diabetes outside preg</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes</t>
+  </si>
+  <si>
+    <t>Chronic+gest diab</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Any hypertension</t>
+  </si>
+  <si>
+    <t>Hyper outside preg</t>
+  </si>
+  <si>
+    <t>Chronic+gest hyper</t>
+  </si>
+  <si>
+    <t>Preeclam/eclam</t>
+  </si>
+  <si>
+    <t>Any birth defect</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>Lip</t>
+  </si>
+  <si>
+    <t>Digestive system</t>
+  </si>
+  <si>
+    <t>Genital</t>
+  </si>
+  <si>
+    <t>Urinary tract</t>
+  </si>
+  <si>
+    <t>Musculoskeletal</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Other/chromos</t>
+  </si>
+  <si>
+    <t>Chro/gene dis_ASD spe</t>
+  </si>
+  <si>
+    <t>Any neurologic</t>
+  </si>
+  <si>
+    <t>Inflammatory of CNS</t>
+  </si>
+  <si>
+    <t>Systemic atrophies</t>
+  </si>
+  <si>
+    <t>Extrapyramid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other degenerative </t>
+  </si>
+  <si>
+    <t>Demyelinating of CNS</t>
+  </si>
+  <si>
+    <t>Episodic</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Nerve disorder</t>
+  </si>
+  <si>
+    <t>Polyneuropath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myoneural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerebral palsy </t>
+  </si>
+  <si>
+    <t>Other neurologic</t>
+  </si>
+  <si>
+    <t>Thyrotoxicosis</t>
+  </si>
+  <si>
+    <t>Thyroiditis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pri adrenocortical </t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Juvenile arthritis</t>
+  </si>
+  <si>
+    <t>Dermatopolymyositis</t>
+  </si>
+  <si>
+    <t>Polymyalgia</t>
+  </si>
+  <si>
+    <t>Scleroderma</t>
+  </si>
+  <si>
+    <t>Lupus erythema</t>
+  </si>
+  <si>
+    <t>Sjogren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankylos spondil </t>
+  </si>
+  <si>
+    <t>Granulomato</t>
+  </si>
+  <si>
+    <t>Celiac</t>
+  </si>
+  <si>
+    <t>Crohn</t>
+  </si>
+  <si>
+    <t>Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>Pernicious anem</t>
+  </si>
+  <si>
+    <t>Hemolytic anem</t>
+  </si>
+  <si>
+    <t>Purpura</t>
+  </si>
+  <si>
+    <t>Multiple sclerosis</t>
+  </si>
+  <si>
+    <t>Guillain-Bar</t>
+  </si>
+  <si>
+    <t>Myasthen grav</t>
+  </si>
+  <si>
+    <t>Pemphigus</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Alopecia areata</t>
+  </si>
+  <si>
+    <t>Vitiligo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any endocrine </t>
+  </si>
+  <si>
+    <t>Any connective</t>
+  </si>
+  <si>
+    <t>Any gastrointest</t>
+  </si>
+  <si>
+    <t>Any blood</t>
+  </si>
+  <si>
+    <t>Any nervous</t>
+  </si>
+  <si>
+    <t>Any skin</t>
+  </si>
+  <si>
+    <t>Any autoimmune</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>Index child (f) log(HR)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Index child (m) log(HR)</t>
+  </si>
+  <si>
+    <t>Brother log(HR)</t>
+  </si>
+  <si>
+    <t>Sister log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. half sister log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. half sister log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. half brother log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. half brother log(HR)</t>
+  </si>
+  <si>
+    <t>Mother log(HR)</t>
+  </si>
+  <si>
+    <t>Father log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. grandmother log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. grandfather log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. grandmother log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. grandfather log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. aunt log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. uncle log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. aunt log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. uncle log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. cousin (f) log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. cousin (m) log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. cousin (f) log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. cousin (m) log(HR)</t>
   </si>
 </sst>
 </file>
@@ -794,13 +665,21 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -826,11 +705,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1065,7 @@
     <col min="13" max="15" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,203 +1075,203 @@
       <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AX1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="BA1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="BD1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="BJ1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>248</v>
+      <c r="BP1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.2">
@@ -1399,7 +1281,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="2"/>
@@ -1563,7 +1445,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="2"/>
@@ -1757,7 +1639,7 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="2"/>
@@ -1954,7 +1836,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="2"/>
@@ -2157,7 +2039,7 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="2"/>
@@ -2360,7 +2242,7 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="2"/>
@@ -2563,7 +2445,7 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="2"/>
@@ -2766,7 +2648,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="2"/>
@@ -2969,7 +2851,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="2"/>
@@ -3172,7 +3054,7 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="2"/>
@@ -3375,7 +3257,7 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="2"/>
@@ -3572,7 +3454,7 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="2"/>
@@ -3769,7 +3651,7 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="2"/>
@@ -3909,7 +3791,7 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="2"/>
@@ -4112,7 +3994,7 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="2"/>
@@ -4315,7 +4197,7 @@
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>112</v>
       </c>
       <c r="D17" s="2"/>
@@ -4494,7 +4376,7 @@
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="2"/>
@@ -4697,7 +4579,7 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="2"/>
@@ -4876,7 +4758,7 @@
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="2"/>
@@ -5013,7 +4895,7 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="2"/>
@@ -5216,7 +5098,7 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>117</v>
       </c>
       <c r="D22" s="2"/>
@@ -5419,7 +5301,7 @@
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
       <c r="D23" s="2"/>
@@ -5622,7 +5504,7 @@
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="2"/>
@@ -5825,7 +5707,7 @@
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="2"/>
@@ -6022,7 +5904,7 @@
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="2"/>
@@ -6198,7 +6080,7 @@
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="2"/>
@@ -6401,7 +6283,7 @@
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>123</v>
       </c>
       <c r="D28" s="2"/>
@@ -6604,7 +6486,7 @@
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="2"/>
@@ -6807,7 +6689,7 @@
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="2"/>
@@ -6950,7 +6832,7 @@
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="2"/>
@@ -7093,7 +6975,7 @@
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="2"/>
@@ -7296,7 +7178,7 @@
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>128</v>
       </c>
       <c r="D33" s="2"/>
@@ -7493,7 +7375,7 @@
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>129</v>
       </c>
       <c r="D34" s="2"/>
@@ -7696,7 +7578,7 @@
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>130</v>
       </c>
       <c r="D35" s="2"/>
@@ -7899,7 +7781,7 @@
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>131</v>
       </c>
       <c r="D36" s="2"/>
@@ -8102,7 +7984,7 @@
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>132</v>
       </c>
       <c r="D37" s="2"/>
@@ -8290,7 +8172,7 @@
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>133</v>
       </c>
       <c r="D38" s="2"/>
@@ -8466,7 +8348,7 @@
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>134</v>
       </c>
       <c r="D39" s="2"/>
@@ -8669,7 +8551,7 @@
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="2"/>
@@ -8866,7 +8748,7 @@
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>136</v>
       </c>
       <c r="D41" s="2"/>
@@ -9069,7 +8951,7 @@
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="2"/>
@@ -9272,7 +9154,7 @@
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>138</v>
       </c>
       <c r="D43" s="2"/>
@@ -9475,7 +9357,7 @@
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="2"/>
@@ -9678,7 +9560,7 @@
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="2"/>
@@ -9863,7 +9745,7 @@
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>141</v>
       </c>
       <c r="D46" s="2"/>
@@ -10066,7 +9948,7 @@
       <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>142</v>
       </c>
       <c r="D47" s="2"/>
@@ -10269,7 +10151,7 @@
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>143</v>
       </c>
       <c r="D48" s="2"/>
@@ -10388,7 +10270,7 @@
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>144</v>
       </c>
       <c r="D49" s="2"/>
@@ -10564,7 +10446,7 @@
       <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>145</v>
       </c>
       <c r="D50" s="2"/>
@@ -10656,7 +10538,7 @@
       <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>146</v>
       </c>
       <c r="D51" s="2"/>
@@ -10832,7 +10714,7 @@
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>147</v>
       </c>
       <c r="D52" s="2"/>
@@ -11035,7 +10917,7 @@
       <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>148</v>
       </c>
       <c r="D53" s="2"/>
@@ -11238,7 +11120,7 @@
       <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>149</v>
       </c>
       <c r="D54" s="2"/>
@@ -11441,7 +11323,7 @@
       <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>150</v>
       </c>
       <c r="D55" s="2"/>
@@ -11602,7 +11484,7 @@
       <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>151</v>
       </c>
       <c r="D56" s="2"/>
@@ -11787,7 +11669,7 @@
       <c r="B57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>152</v>
       </c>
       <c r="D57" s="2"/>
@@ -11990,7 +11872,7 @@
       <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>153</v>
       </c>
       <c r="D58" s="2"/>
@@ -12193,8 +12075,8 @@
       <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>154</v>
+      <c r="C59" t="s">
+        <v>119</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -12396,8 +12278,8 @@
       <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>155</v>
+      <c r="C60" t="s">
+        <v>154</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -12557,8 +12439,8 @@
       <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>156</v>
+      <c r="C61" t="s">
+        <v>155</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -12685,8 +12567,8 @@
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>157</v>
+      <c r="C62" t="s">
+        <v>156</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -12771,8 +12653,8 @@
       <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>158</v>
+      <c r="C63" t="s">
+        <v>157</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -12956,8 +12838,8 @@
       <c r="B64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>159</v>
+      <c r="C64" t="s">
+        <v>158</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -13135,8 +13017,8 @@
       <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>160</v>
+      <c r="C65" t="s">
+        <v>159</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -13221,8 +13103,8 @@
       <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>161</v>
+      <c r="C66" t="s">
+        <v>160</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -13313,8 +13195,8 @@
       <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>162</v>
+      <c r="C67" t="s">
+        <v>161</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -13405,8 +13287,8 @@
       <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>163</v>
+      <c r="C68" t="s">
+        <v>162</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -13521,8 +13403,8 @@
       <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>164</v>
+      <c r="C69" t="s">
+        <v>163</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -13625,8 +13507,8 @@
       <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>165</v>
+      <c r="C70" t="s">
+        <v>164</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -13759,8 +13641,8 @@
       <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>166</v>
+      <c r="C71" t="s">
+        <v>165</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -13827,8 +13709,8 @@
       <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>167</v>
+      <c r="C72" t="s">
+        <v>166</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -14006,8 +13888,8 @@
       <c r="B73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>168</v>
+      <c r="C73" t="s">
+        <v>167</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -14209,8 +14091,8 @@
       <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>169</v>
+      <c r="C74" t="s">
+        <v>168</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -14406,8 +14288,8 @@
       <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>170</v>
+      <c r="C75" t="s">
+        <v>169</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -14504,8 +14386,8 @@
       <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>171</v>
+      <c r="C76" t="s">
+        <v>170</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -14578,8 +14460,8 @@
       <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>172</v>
+      <c r="C77" t="s">
+        <v>171</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -14721,8 +14603,8 @@
       <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>173</v>
+      <c r="C78" t="s">
+        <v>172</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -14867,8 +14749,8 @@
       <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>174</v>
+      <c r="C79" t="s">
+        <v>173</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -14989,8 +14871,8 @@
       <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>175</v>
+      <c r="C80" t="s">
+        <v>174</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -15069,8 +14951,8 @@
       <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>176</v>
+      <c r="C81" t="s">
+        <v>175</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -15137,8 +15019,8 @@
       <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>177</v>
+      <c r="C82" t="s">
+        <v>176</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -15319,8 +15201,8 @@
       <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>178</v>
+      <c r="C83" t="s">
+        <v>177</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -15423,8 +15305,8 @@
       <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>179</v>
+      <c r="C84" t="s">
+        <v>178</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -15506,8 +15388,8 @@
       <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>180</v>
+      <c r="C85" t="s">
+        <v>179</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -15709,8 +15591,8 @@
       <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>181</v>
+      <c r="C86" t="s">
+        <v>180</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -15912,8 +15794,8 @@
       <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>182</v>
+      <c r="C87" t="s">
+        <v>181</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -16115,8 +15997,8 @@
       <c r="B88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>183</v>
+      <c r="C88" t="s">
+        <v>182</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -16270,8 +16152,8 @@
       <c r="B89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>184</v>
+      <c r="C89" t="s">
+        <v>183</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -16437,8 +16319,8 @@
       <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>185</v>
+      <c r="C90" t="s">
+        <v>184</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -16628,8 +16510,8 @@
       <c r="B91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>186</v>
+      <c r="C91" t="s">
+        <v>185</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -16831,8 +16713,8 @@
       <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>187</v>
+      <c r="C92" t="s">
+        <v>186</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -17034,8 +16916,8 @@
       <c r="B93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>188</v>
+      <c r="C93" t="s">
+        <v>187</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
